--- a/data/pca/factorExposure/factorExposure_2016-11-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01769709992045771</v>
+        <v>0.01563087909050628</v>
       </c>
       <c r="C2">
-        <v>0.04493819843344585</v>
+        <v>-0.04317071789424089</v>
       </c>
       <c r="D2">
-        <v>0.01907199695693823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05359930439399804</v>
+      </c>
+      <c r="E2">
+        <v>-0.01858853611698742</v>
+      </c>
+      <c r="F2">
+        <v>-0.08901893048945153</v>
+      </c>
+      <c r="G2">
+        <v>0.03667885355116691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05629097290553014</v>
+        <v>0.03514445707465969</v>
       </c>
       <c r="C3">
-        <v>0.1013362233758778</v>
+        <v>-0.08704394315548301</v>
       </c>
       <c r="D3">
-        <v>0.02845568585950117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0944491146949063</v>
+      </c>
+      <c r="E3">
+        <v>-0.03053460070688659</v>
+      </c>
+      <c r="F3">
+        <v>-0.08855445738016197</v>
+      </c>
+      <c r="G3">
+        <v>-0.06676279540206768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06296084458568581</v>
+        <v>0.05832863370294501</v>
       </c>
       <c r="C4">
-        <v>0.06517721143911677</v>
+        <v>-0.06154010204207634</v>
       </c>
       <c r="D4">
-        <v>0.0005390386829576654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05483422159666326</v>
+      </c>
+      <c r="E4">
+        <v>-0.01248988603853617</v>
+      </c>
+      <c r="F4">
+        <v>-0.09581676409505802</v>
+      </c>
+      <c r="G4">
+        <v>-0.0237907509974299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02550500573375373</v>
+        <v>0.03533485125135744</v>
       </c>
       <c r="C6">
-        <v>0.05035823643525396</v>
+        <v>-0.03797628598945285</v>
       </c>
       <c r="D6">
-        <v>0.008160441805740581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06395307048983093</v>
+      </c>
+      <c r="E6">
+        <v>-0.01745440421788082</v>
+      </c>
+      <c r="F6">
+        <v>-0.08819377871263374</v>
+      </c>
+      <c r="G6">
+        <v>-0.004754589952340321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02194527806232564</v>
+        <v>0.02170267943798593</v>
       </c>
       <c r="C7">
-        <v>0.0452398772535809</v>
+        <v>-0.03740668515263457</v>
       </c>
       <c r="D7">
-        <v>-0.01578746118996384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.02914539165800194</v>
+      </c>
+      <c r="E7">
+        <v>0.0001502215429517451</v>
+      </c>
+      <c r="F7">
+        <v>-0.1170283403407985</v>
+      </c>
+      <c r="G7">
+        <v>0.01114761341417168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.00188366759522335</v>
+        <v>0.00647309142325616</v>
       </c>
       <c r="C8">
-        <v>0.01000491180221631</v>
+        <v>-0.0197046699075445</v>
       </c>
       <c r="D8">
-        <v>0.01518153279920635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03381137179215226</v>
+      </c>
+      <c r="E8">
+        <v>-0.01102394022513794</v>
+      </c>
+      <c r="F8">
+        <v>-0.06924105884570514</v>
+      </c>
+      <c r="G8">
+        <v>-0.005314067663543903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02966047461352871</v>
+        <v>0.03667803621183197</v>
       </c>
       <c r="C9">
-        <v>0.04549880834459279</v>
+        <v>-0.04804406933668181</v>
       </c>
       <c r="D9">
-        <v>-0.006104088732921583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03738869802369099</v>
+      </c>
+      <c r="E9">
+        <v>-0.008872272753697626</v>
+      </c>
+      <c r="F9">
+        <v>-0.09916502297317212</v>
+      </c>
+      <c r="G9">
+        <v>-0.007873742890199847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08164047999806669</v>
+        <v>0.09423066403982697</v>
       </c>
       <c r="C10">
-        <v>-0.1985892986687109</v>
+        <v>0.194862684072967</v>
       </c>
       <c r="D10">
-        <v>0.0233720264534448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01184352934543015</v>
+      </c>
+      <c r="E10">
+        <v>-0.03212297989315145</v>
+      </c>
+      <c r="F10">
+        <v>-0.05176496828216522</v>
+      </c>
+      <c r="G10">
+        <v>-2.401073166297103e-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04226211000797678</v>
+        <v>0.03780064061870694</v>
       </c>
       <c r="C11">
-        <v>0.05556195399938359</v>
+        <v>-0.05274539228621677</v>
       </c>
       <c r="D11">
-        <v>-0.01341939665553425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02442913757946618</v>
+      </c>
+      <c r="E11">
+        <v>0.01296914047465213</v>
+      </c>
+      <c r="F11">
+        <v>-0.0683482169550661</v>
+      </c>
+      <c r="G11">
+        <v>-0.004844552313727731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03635877130376151</v>
+        <v>0.03751391315521816</v>
       </c>
       <c r="C12">
-        <v>0.04559488812359183</v>
+        <v>-0.04693444476592618</v>
       </c>
       <c r="D12">
-        <v>-0.0113791304903013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01892608497770119</v>
+      </c>
+      <c r="E12">
+        <v>0.004119793225680322</v>
+      </c>
+      <c r="F12">
+        <v>-0.06967829887348373</v>
+      </c>
+      <c r="G12">
+        <v>-0.0007982192440086373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01084308777771681</v>
+        <v>0.01404618505103526</v>
       </c>
       <c r="C13">
-        <v>0.0418494663800576</v>
+        <v>-0.04065340398707377</v>
       </c>
       <c r="D13">
-        <v>0.01435167054648708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06082192364141999</v>
+      </c>
+      <c r="E13">
+        <v>-0.0283201640207781</v>
+      </c>
+      <c r="F13">
+        <v>-0.1327202498585552</v>
+      </c>
+      <c r="G13">
+        <v>-0.007272603698085321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006020965673641106</v>
+        <v>0.008630195749833201</v>
       </c>
       <c r="C14">
-        <v>0.03049815486836809</v>
+        <v>-0.02790427300042395</v>
       </c>
       <c r="D14">
-        <v>-0.0143959686318621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02245730317078532</v>
+      </c>
+      <c r="E14">
+        <v>-0.00712477925331657</v>
+      </c>
+      <c r="F14">
+        <v>-0.1053471261223594</v>
+      </c>
+      <c r="G14">
+        <v>0.01700636456507597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0009611122109070955</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.0004864193506000953</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001212222941618155</v>
+      </c>
+      <c r="E15">
+        <v>0.000614300233598119</v>
+      </c>
+      <c r="F15">
+        <v>-0.0009253187859804014</v>
+      </c>
+      <c r="G15">
+        <v>0.0007183172587398945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03522057902043019</v>
+        <v>0.03510119693466037</v>
       </c>
       <c r="C16">
-        <v>0.04089014490936346</v>
+        <v>-0.04528485809852262</v>
       </c>
       <c r="D16">
-        <v>-0.004125296458673229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02268298524815396</v>
+      </c>
+      <c r="E16">
+        <v>-0.002810230538120492</v>
+      </c>
+      <c r="F16">
+        <v>-0.07380472794019249</v>
+      </c>
+      <c r="G16">
+        <v>0.009902108298612922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03428003319576148</v>
+        <v>0.02080492924588478</v>
       </c>
       <c r="C19">
-        <v>0.05845306774335665</v>
+        <v>-0.04962163909636219</v>
       </c>
       <c r="D19">
-        <v>0.03472642891764274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1003622089537062</v>
+      </c>
+      <c r="E19">
+        <v>-0.03168446038292118</v>
+      </c>
+      <c r="F19">
+        <v>-0.1379891443566942</v>
+      </c>
+      <c r="G19">
+        <v>0.02644130848497464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01350885588546414</v>
+        <v>0.01617977835014634</v>
       </c>
       <c r="C20">
-        <v>0.04498590995227585</v>
+        <v>-0.0387305016784731</v>
       </c>
       <c r="D20">
-        <v>0.01942109243977011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04495601124002528</v>
+      </c>
+      <c r="E20">
+        <v>-0.03418641606041196</v>
+      </c>
+      <c r="F20">
+        <v>-0.10123872052832</v>
+      </c>
+      <c r="G20">
+        <v>0.009636985065569597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.007220385659870883</v>
+        <v>0.01035979744836194</v>
       </c>
       <c r="C21">
-        <v>0.0400570235271665</v>
+        <v>-0.03969311975562247</v>
       </c>
       <c r="D21">
-        <v>0.02268789995570077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0613980110604233</v>
+      </c>
+      <c r="E21">
+        <v>-0.02932801766317133</v>
+      </c>
+      <c r="F21">
+        <v>-0.1503100738681536</v>
+      </c>
+      <c r="G21">
+        <v>0.007223483013084577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.004369605107300103</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01459828791900274</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02471631695994551</v>
+      </c>
+      <c r="E22">
+        <v>-0.001777471162133806</v>
+      </c>
+      <c r="F22">
+        <v>-0.02035413573429836</v>
+      </c>
+      <c r="G22">
+        <v>-0.033589289721483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.004401870322725338</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01452692013141344</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02447298325183126</v>
+      </c>
+      <c r="E23">
+        <v>-0.00207978835922372</v>
+      </c>
+      <c r="F23">
+        <v>-0.02005856268177407</v>
+      </c>
+      <c r="G23">
+        <v>-0.03366976938618781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02934456793088801</v>
+        <v>0.03207521450365228</v>
       </c>
       <c r="C24">
-        <v>0.04750603823176418</v>
+        <v>-0.05143378374017611</v>
       </c>
       <c r="D24">
-        <v>-0.01355495966526645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02054730777432835</v>
+      </c>
+      <c r="E24">
+        <v>0.004908830595837806</v>
+      </c>
+      <c r="F24">
+        <v>-0.07675657288861218</v>
+      </c>
+      <c r="G24">
+        <v>0.003263942787486077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04791393645647495</v>
+        <v>0.04388131950311279</v>
       </c>
       <c r="C25">
-        <v>0.05479254267728941</v>
+        <v>-0.05661685480853303</v>
       </c>
       <c r="D25">
-        <v>-0.02284864037504486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01611032247172753</v>
+      </c>
+      <c r="E25">
+        <v>0.005752002214473665</v>
+      </c>
+      <c r="F25">
+        <v>-0.08496910562874575</v>
+      </c>
+      <c r="G25">
+        <v>-0.01157697598581677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.009930347094169532</v>
+        <v>0.0154648981141538</v>
       </c>
       <c r="C26">
-        <v>0.01237702123226417</v>
+        <v>-0.01311285053269958</v>
       </c>
       <c r="D26">
-        <v>-0.0009832160252315496</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01703923541944659</v>
+      </c>
+      <c r="E26">
+        <v>-0.009086173120448821</v>
+      </c>
+      <c r="F26">
+        <v>-0.08144085539644763</v>
+      </c>
+      <c r="G26">
+        <v>0.02226918306354918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09539330645686218</v>
+        <v>0.1271816465749754</v>
       </c>
       <c r="C28">
-        <v>-0.228339094588706</v>
+        <v>0.2465556957056334</v>
       </c>
       <c r="D28">
-        <v>0.01472090531108731</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006321789565464669</v>
+      </c>
+      <c r="E28">
+        <v>-0.03676520592301474</v>
+      </c>
+      <c r="F28">
+        <v>-0.06234691011556495</v>
+      </c>
+      <c r="G28">
+        <v>-0.006325521331876635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01126441473193575</v>
+        <v>0.009060609154017314</v>
       </c>
       <c r="C29">
-        <v>0.02201684443640066</v>
+        <v>-0.02272814701688428</v>
       </c>
       <c r="D29">
-        <v>-0.01179842899000435</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01341013178664394</v>
+      </c>
+      <c r="E29">
+        <v>-0.01155795220811576</v>
+      </c>
+      <c r="F29">
+        <v>-0.09975349862139254</v>
+      </c>
+      <c r="G29">
+        <v>0.003225811055259109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04146766183629002</v>
+        <v>0.03962621506871651</v>
       </c>
       <c r="C30">
-        <v>0.07242234858976938</v>
+        <v>-0.06503118947026318</v>
       </c>
       <c r="D30">
-        <v>-0.003452208072460279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09071008357876482</v>
+      </c>
+      <c r="E30">
+        <v>0.01378845813599685</v>
+      </c>
+      <c r="F30">
+        <v>-0.108974246637589</v>
+      </c>
+      <c r="G30">
+        <v>0.0303520625110069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0427586295976946</v>
+        <v>0.05892230841924413</v>
       </c>
       <c r="C31">
-        <v>0.03081654584413567</v>
+        <v>-0.04496691104832515</v>
       </c>
       <c r="D31">
-        <v>-0.01342105402579683</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004164475566186619</v>
+      </c>
+      <c r="E31">
+        <v>-0.03513688768618418</v>
+      </c>
+      <c r="F31">
+        <v>-0.09440686491397333</v>
+      </c>
+      <c r="G31">
+        <v>-0.02617139473188457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007540266649719343</v>
+        <v>0.00529583826681833</v>
       </c>
       <c r="C32">
-        <v>0.03467789230385421</v>
+        <v>-0.0270907066883518</v>
       </c>
       <c r="D32">
-        <v>0.009098455144442826</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04293499435831521</v>
+      </c>
+      <c r="E32">
+        <v>0.003564428121181743</v>
+      </c>
+      <c r="F32">
+        <v>-0.07918089308510745</v>
+      </c>
+      <c r="G32">
+        <v>0.01110025133243076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0312924260170054</v>
+        <v>0.02756382224544945</v>
       </c>
       <c r="C33">
-        <v>0.05660899553498113</v>
+        <v>-0.04825939822665871</v>
       </c>
       <c r="D33">
-        <v>0.002236252626192099</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06999247642041935</v>
+      </c>
+      <c r="E33">
+        <v>-0.008158033377201435</v>
+      </c>
+      <c r="F33">
+        <v>-0.1518305021771717</v>
+      </c>
+      <c r="G33">
+        <v>-0.004557964211439954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05343258377841864</v>
+        <v>0.04380813519578118</v>
       </c>
       <c r="C34">
-        <v>0.05375820072740255</v>
+        <v>-0.06227858102245937</v>
       </c>
       <c r="D34">
-        <v>-0.01865997729954465</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.02307848388017406</v>
+      </c>
+      <c r="E34">
+        <v>0.0190823222140344</v>
+      </c>
+      <c r="F34">
+        <v>-0.07783011361832953</v>
+      </c>
+      <c r="G34">
+        <v>0.000825419497592721</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01021994858308062</v>
+        <v>0.01589947972684277</v>
       </c>
       <c r="C36">
-        <v>0.008206679695922111</v>
+        <v>-0.008377607639145681</v>
       </c>
       <c r="D36">
-        <v>-0.007182734921816852</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01994122286776079</v>
+      </c>
+      <c r="E36">
+        <v>-0.01383410803470326</v>
+      </c>
+      <c r="F36">
+        <v>-0.09552106303915261</v>
+      </c>
+      <c r="G36">
+        <v>0.000499000762444185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03842724479510053</v>
+        <v>0.03074902257551065</v>
       </c>
       <c r="C38">
-        <v>0.02126784143913944</v>
+        <v>-0.02214325302869649</v>
       </c>
       <c r="D38">
-        <v>-0.009139735874373748</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02008237581678097</v>
+      </c>
+      <c r="E38">
+        <v>-0.01571801980704178</v>
+      </c>
+      <c r="F38">
+        <v>-0.08676378209343752</v>
+      </c>
+      <c r="G38">
+        <v>-0.001067056753412306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03837069088167915</v>
+        <v>0.03812267011903996</v>
       </c>
       <c r="C39">
-        <v>0.08366618005840985</v>
+        <v>-0.07413150803953314</v>
       </c>
       <c r="D39">
-        <v>0.002542918695430663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04639634889218076</v>
+      </c>
+      <c r="E39">
+        <v>0.01300321904400071</v>
+      </c>
+      <c r="F39">
+        <v>-0.08438753048305282</v>
+      </c>
+      <c r="G39">
+        <v>0.03471967569828661</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0174135614553213</v>
+        <v>0.01809517706713641</v>
       </c>
       <c r="C40">
-        <v>0.02732559170606444</v>
+        <v>-0.03790324271753415</v>
       </c>
       <c r="D40">
-        <v>0.0163172151372868</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03324895080880103</v>
+      </c>
+      <c r="E40">
+        <v>-0.03276863134770146</v>
+      </c>
+      <c r="F40">
+        <v>-0.1177593335040523</v>
+      </c>
+      <c r="G40">
+        <v>-0.03941704027924014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01152156911253267</v>
+        <v>0.01918008679571026</v>
       </c>
       <c r="C41">
-        <v>-9.488778833283944e-05</v>
+        <v>0.0001253966615606066</v>
       </c>
       <c r="D41">
-        <v>-0.007871120506764034</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01588383075784551</v>
+      </c>
+      <c r="E41">
+        <v>-0.01753996575998926</v>
+      </c>
+      <c r="F41">
+        <v>-0.08639716405108724</v>
+      </c>
+      <c r="G41">
+        <v>0.007149353267464005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.003091654920450037</v>
+        <v>0.002468870060403858</v>
       </c>
       <c r="C42">
-        <v>0.0508522867435913</v>
+        <v>-0.0271980645963587</v>
       </c>
       <c r="D42">
-        <v>0.02232241679599082</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.002178920501533924</v>
+      </c>
+      <c r="E42">
+        <v>-0.02183982929188847</v>
+      </c>
+      <c r="F42">
+        <v>0.03386489033361235</v>
+      </c>
+      <c r="G42">
+        <v>0.01249486038536944</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03358128158897685</v>
+        <v>0.03320449637051515</v>
       </c>
       <c r="C43">
-        <v>0.01254417143586241</v>
+        <v>-0.01370301032513916</v>
       </c>
       <c r="D43">
-        <v>-0.00986846279890927</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03416980218183956</v>
+      </c>
+      <c r="E43">
+        <v>-0.01445299322519659</v>
+      </c>
+      <c r="F43">
+        <v>-0.1097187382450363</v>
+      </c>
+      <c r="G43">
+        <v>-0.01518452229471122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0220240244172135</v>
+        <v>0.01515261903409837</v>
       </c>
       <c r="C44">
-        <v>0.05521755930720304</v>
+        <v>-0.0522655343384394</v>
       </c>
       <c r="D44">
-        <v>0.00190873212051486</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03811942416664797</v>
+      </c>
+      <c r="E44">
+        <v>-0.02428838614947997</v>
+      </c>
+      <c r="F44">
+        <v>-0.1091329665908648</v>
+      </c>
+      <c r="G44">
+        <v>0.01017010351321676</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0003182322398120264</v>
+        <v>0.01081226081361294</v>
       </c>
       <c r="C46">
-        <v>0.01466622775145832</v>
+        <v>-0.01869513503319726</v>
       </c>
       <c r="D46">
-        <v>-0.02041808845315327</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.005956689068049634</v>
+      </c>
+      <c r="E46">
+        <v>-0.01715623895456544</v>
+      </c>
+      <c r="F46">
+        <v>-0.1092702090086532</v>
+      </c>
+      <c r="G46">
+        <v>0.01016946111450607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07815813773142836</v>
+        <v>0.08750351012125156</v>
       </c>
       <c r="C47">
-        <v>0.06789994981972756</v>
+        <v>-0.07295522232297187</v>
       </c>
       <c r="D47">
-        <v>-0.008620118136037131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00969592333819084</v>
+      </c>
+      <c r="E47">
+        <v>-0.04249991926229971</v>
+      </c>
+      <c r="F47">
+        <v>-0.09250646391229028</v>
+      </c>
+      <c r="G47">
+        <v>-0.02918814093686753</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01795917128470722</v>
+        <v>0.01753393373612741</v>
       </c>
       <c r="C48">
-        <v>0.01106107793310753</v>
+        <v>-0.01556222946009522</v>
       </c>
       <c r="D48">
-        <v>-0.01069432548753289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01387997219967584</v>
+      </c>
+      <c r="E48">
+        <v>-0.02317451132675155</v>
+      </c>
+      <c r="F48">
+        <v>-0.1066923380104871</v>
+      </c>
+      <c r="G48">
+        <v>0.005837936437180028</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08715498947537001</v>
+        <v>0.07891750329313908</v>
       </c>
       <c r="C50">
-        <v>0.0664158428408802</v>
+        <v>-0.07026330663015264</v>
       </c>
       <c r="D50">
-        <v>-0.02042234769103587</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.005986664691832001</v>
+      </c>
+      <c r="E50">
+        <v>-0.03960512315132723</v>
+      </c>
+      <c r="F50">
+        <v>-0.09574851091586771</v>
+      </c>
+      <c r="G50">
+        <v>-0.05718236960315352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01774292752322208</v>
+        <v>0.01242256368562229</v>
       </c>
       <c r="C51">
-        <v>0.03991157928938726</v>
+        <v>-0.0336558954822815</v>
       </c>
       <c r="D51">
-        <v>-0.01019250770624972</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04071256365238629</v>
+      </c>
+      <c r="E51">
+        <v>0.004709083210231623</v>
+      </c>
+      <c r="F51">
+        <v>-0.09873565229178362</v>
+      </c>
+      <c r="G51">
+        <v>0.02008349440592083</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09842177156358226</v>
+        <v>0.09106836573786289</v>
       </c>
       <c r="C53">
-        <v>0.06863594579034835</v>
+        <v>-0.08570463572237096</v>
       </c>
       <c r="D53">
-        <v>-0.03024258691901967</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03127204178761896</v>
+      </c>
+      <c r="E53">
+        <v>-0.04985042454972088</v>
+      </c>
+      <c r="F53">
+        <v>-0.1010290542688581</v>
+      </c>
+      <c r="G53">
+        <v>-0.03823947641887982</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03084564753951714</v>
+        <v>0.03200903168078435</v>
       </c>
       <c r="C54">
-        <v>0.005705265867319501</v>
+        <v>-0.02188864399559</v>
       </c>
       <c r="D54">
-        <v>-0.00215871088135167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02422979941986924</v>
+      </c>
+      <c r="E54">
+        <v>-0.01285422260294925</v>
+      </c>
+      <c r="F54">
+        <v>-0.1068645878288871</v>
+      </c>
+      <c r="G54">
+        <v>0.003754023284059538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07498387644062751</v>
+        <v>0.0831062148263764</v>
       </c>
       <c r="C55">
-        <v>0.06371181840476621</v>
+        <v>-0.06939596881616426</v>
       </c>
       <c r="D55">
-        <v>-0.02682069488689791</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03708365438618425</v>
+      </c>
+      <c r="E55">
+        <v>-0.04647281618341352</v>
+      </c>
+      <c r="F55">
+        <v>-0.06787754913085034</v>
+      </c>
+      <c r="G55">
+        <v>-0.03176130372972867</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1522279039837591</v>
+        <v>0.1448448368205136</v>
       </c>
       <c r="C56">
-        <v>0.0886058709058013</v>
+        <v>-0.1015211225732982</v>
       </c>
       <c r="D56">
-        <v>-0.02257973174740574</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03908221480272446</v>
+      </c>
+      <c r="E56">
+        <v>-0.05290692539117082</v>
+      </c>
+      <c r="F56">
+        <v>-0.0610082881316767</v>
+      </c>
+      <c r="G56">
+        <v>-0.04072955416962021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.004965829243621199</v>
+        <v>0.00202216250503262</v>
       </c>
       <c r="C57">
-        <v>0.008654042626708177</v>
+        <v>-0.004397928545773483</v>
       </c>
       <c r="D57">
-        <v>0.03137114869151579</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02779793914711677</v>
+      </c>
+      <c r="E57">
+        <v>-0.00223525105724413</v>
+      </c>
+      <c r="F57">
+        <v>-0.009980608020075374</v>
+      </c>
+      <c r="G57">
+        <v>0.002878495066980507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.059830654152061</v>
+        <v>0.03794960208334153</v>
       </c>
       <c r="C58">
-        <v>0.08100284255555829</v>
+        <v>-0.03827970199559597</v>
       </c>
       <c r="D58">
-        <v>0.9727062554974623</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.6788679098815831</v>
+      </c>
+      <c r="E58">
+        <v>-0.6257196273508346</v>
+      </c>
+      <c r="F58">
+        <v>0.3135306526447362</v>
+      </c>
+      <c r="G58">
+        <v>-0.03206364702318008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1419969330113792</v>
+        <v>0.1483591135622008</v>
       </c>
       <c r="C59">
-        <v>-0.2217001009863309</v>
+        <v>0.2032490090549884</v>
       </c>
       <c r="D59">
-        <v>0.01262997873646957</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02095722561829057</v>
+      </c>
+      <c r="E59">
+        <v>-0.01397763091315287</v>
+      </c>
+      <c r="F59">
+        <v>-0.03732927933674901</v>
+      </c>
+      <c r="G59">
+        <v>0.02424332278464851</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3139894309708209</v>
+        <v>0.2848473313714514</v>
       </c>
       <c r="C60">
-        <v>0.08424827763452115</v>
+        <v>-0.09452522054740627</v>
       </c>
       <c r="D60">
-        <v>-0.001955588139797052</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1470471444098113</v>
+      </c>
+      <c r="E60">
+        <v>0.2947990218465792</v>
+      </c>
+      <c r="F60">
+        <v>0.1445155619190315</v>
+      </c>
+      <c r="G60">
+        <v>-0.06533753951914079</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0366624856869351</v>
+        <v>0.04107113454641195</v>
       </c>
       <c r="C61">
-        <v>0.06217875022853568</v>
+        <v>-0.06339130425957921</v>
       </c>
       <c r="D61">
-        <v>0.0009714771762380711</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03775693637363204</v>
+      </c>
+      <c r="E61">
+        <v>0.002870965178139468</v>
+      </c>
+      <c r="F61">
+        <v>-0.08569384154940834</v>
+      </c>
+      <c r="G61">
+        <v>-0.0005823674961788957</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01745611573122769</v>
+        <v>0.01689134953571931</v>
       </c>
       <c r="C63">
-        <v>0.02731922766487835</v>
+        <v>-0.02838550328780404</v>
       </c>
       <c r="D63">
-        <v>-0.01934966649920964</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01412103212290138</v>
+      </c>
+      <c r="E63">
+        <v>-0.0139788375303652</v>
+      </c>
+      <c r="F63">
+        <v>-0.09062945517706593</v>
+      </c>
+      <c r="G63">
+        <v>-0.01862084618651114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04887448155683106</v>
+        <v>0.054133124628607</v>
       </c>
       <c r="C64">
-        <v>0.02921571093434511</v>
+        <v>-0.04772959523547445</v>
       </c>
       <c r="D64">
-        <v>-0.01540503635312646</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.008453155244355097</v>
+      </c>
+      <c r="E64">
+        <v>0.001789110043281636</v>
+      </c>
+      <c r="F64">
+        <v>-0.09310545332752121</v>
+      </c>
+      <c r="G64">
+        <v>0.01753705203426786</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08606488581011569</v>
+        <v>0.06869532010839152</v>
       </c>
       <c r="C65">
-        <v>0.06098621883195322</v>
+        <v>-0.04252546049076752</v>
       </c>
       <c r="D65">
-        <v>0.008674365035651223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07314154917059963</v>
+      </c>
+      <c r="E65">
+        <v>0.006378548418571361</v>
+      </c>
+      <c r="F65">
+        <v>-0.03688088288917659</v>
+      </c>
+      <c r="G65">
+        <v>0.007292394514933313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06155881574692994</v>
+        <v>0.05165355170906794</v>
       </c>
       <c r="C66">
-        <v>0.1189843456507234</v>
+        <v>-0.09831695677956402</v>
       </c>
       <c r="D66">
-        <v>0.00584802110972312</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.06992143373691047</v>
+      </c>
+      <c r="E66">
+        <v>0.01615791257968782</v>
+      </c>
+      <c r="F66">
+        <v>-0.08926400239929486</v>
+      </c>
+      <c r="G66">
+        <v>0.0155971232494775</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06493275646130177</v>
+        <v>0.05323100809565152</v>
       </c>
       <c r="C67">
-        <v>0.02517212937765441</v>
+        <v>-0.02761589219523769</v>
       </c>
       <c r="D67">
-        <v>-0.01533238520724149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.00616618391047247</v>
+      </c>
+      <c r="E67">
+        <v>-0.008805479708173136</v>
+      </c>
+      <c r="F67">
+        <v>-0.07116604691413549</v>
+      </c>
+      <c r="G67">
+        <v>-0.006836749837160607</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1178904632666357</v>
+        <v>0.1494539779108777</v>
       </c>
       <c r="C68">
-        <v>-0.2879352874140962</v>
+        <v>0.2675714647614902</v>
       </c>
       <c r="D68">
-        <v>0.02812639341498824</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.008216052043707223</v>
+      </c>
+      <c r="E68">
+        <v>-0.04213671167848995</v>
+      </c>
+      <c r="F68">
+        <v>-0.02281874986984977</v>
+      </c>
+      <c r="G68">
+        <v>0.002717471092773979</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08596680541480899</v>
+        <v>0.08706381890401135</v>
       </c>
       <c r="C69">
-        <v>0.06500383855273426</v>
+        <v>-0.07956232024558095</v>
       </c>
       <c r="D69">
-        <v>-0.03291364189067538</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01425994444862154</v>
+      </c>
+      <c r="E69">
+        <v>-0.01592880898639202</v>
+      </c>
+      <c r="F69">
+        <v>-0.09786844009321465</v>
+      </c>
+      <c r="G69">
+        <v>-0.00276114378770821</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.121923358175857</v>
+        <v>0.1390224799198581</v>
       </c>
       <c r="C71">
-        <v>-0.240274052288205</v>
+        <v>0.2376156117539269</v>
       </c>
       <c r="D71">
-        <v>0.0291393307260457</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02177856072948703</v>
+      </c>
+      <c r="E71">
+        <v>-0.04272169701842579</v>
+      </c>
+      <c r="F71">
+        <v>-0.06768363549728562</v>
+      </c>
+      <c r="G71">
+        <v>-0.01568506152851929</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07818949817958205</v>
+        <v>0.08879328528222261</v>
       </c>
       <c r="C72">
-        <v>0.05726515055171614</v>
+        <v>-0.05704580884046971</v>
       </c>
       <c r="D72">
-        <v>-0.04776758396108884</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.006096366398143951</v>
+      </c>
+      <c r="E72">
+        <v>0.02223793378511004</v>
+      </c>
+      <c r="F72">
+        <v>-0.07962290818344263</v>
+      </c>
+      <c r="G72">
+        <v>-0.007913938064261829</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4405145105790236</v>
+        <v>0.3583021220908699</v>
       </c>
       <c r="C73">
-        <v>0.08442492217424516</v>
+        <v>-0.07395471349366291</v>
       </c>
       <c r="D73">
-        <v>0.01259980957964196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3287730662672323</v>
+      </c>
+      <c r="E73">
+        <v>0.5274015388831719</v>
+      </c>
+      <c r="F73">
+        <v>0.3111357066299822</v>
+      </c>
+      <c r="G73">
+        <v>-0.1655054239055981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1179455346466322</v>
+        <v>0.1112396829303697</v>
       </c>
       <c r="C74">
-        <v>0.1138576943023993</v>
+        <v>-0.104526032074287</v>
       </c>
       <c r="D74">
-        <v>-0.02162719469532643</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01618075995332996</v>
+      </c>
+      <c r="E74">
+        <v>-0.06282273553243574</v>
+      </c>
+      <c r="F74">
+        <v>-0.07845150869081716</v>
+      </c>
+      <c r="G74">
+        <v>-0.05322756898093854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2635260154357052</v>
+        <v>0.2577490552257286</v>
       </c>
       <c r="C75">
-        <v>0.1192513176296404</v>
+        <v>-0.13510076435167</v>
       </c>
       <c r="D75">
-        <v>-0.03707331089558952</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1051064240537316</v>
+      </c>
+      <c r="E75">
+        <v>-0.1222920360384278</v>
+      </c>
+      <c r="F75">
+        <v>-0.02862145155858568</v>
+      </c>
+      <c r="G75">
+        <v>-0.05995490686872026</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.117575283461512</v>
+        <v>0.129486434184951</v>
       </c>
       <c r="C76">
-        <v>0.1006865264215542</v>
+        <v>-0.1029542926839613</v>
       </c>
       <c r="D76">
-        <v>-0.03186030511509838</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04621205790992594</v>
+      </c>
+      <c r="E76">
+        <v>-0.08301780166186951</v>
+      </c>
+      <c r="F76">
+        <v>-0.08133089410455595</v>
+      </c>
+      <c r="G76">
+        <v>-0.04228593682044143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07099399992138462</v>
+        <v>0.06712293154223785</v>
       </c>
       <c r="C77">
-        <v>0.05678548148499696</v>
+        <v>-0.06159650271474005</v>
       </c>
       <c r="D77">
-        <v>0.02931066152762252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05703343099040861</v>
+      </c>
+      <c r="E77">
+        <v>-0.03893327532473112</v>
+      </c>
+      <c r="F77">
+        <v>-0.09821691684159621</v>
+      </c>
+      <c r="G77">
+        <v>0.1460428952046111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04414082620190049</v>
+        <v>0.04309843939528259</v>
       </c>
       <c r="C78">
-        <v>0.04782178557763992</v>
+        <v>-0.0540836372274819</v>
       </c>
       <c r="D78">
-        <v>0.003374384943566008</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05749787817470934</v>
+      </c>
+      <c r="E78">
+        <v>0.01864133812715619</v>
+      </c>
+      <c r="F78">
+        <v>-0.09769823344999352</v>
+      </c>
+      <c r="G78">
+        <v>0.01259021706604754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.001960248360721362</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.02323407919709365</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01410188829671265</v>
+      </c>
+      <c r="E79">
+        <v>-0.02714031393079573</v>
+      </c>
+      <c r="F79">
+        <v>-0.03770328540097237</v>
+      </c>
+      <c r="G79">
+        <v>-0.03429432019525109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04966348342046648</v>
+        <v>0.03990106556961445</v>
       </c>
       <c r="C80">
-        <v>0.05666776324096283</v>
+        <v>-0.04725445244981046</v>
       </c>
       <c r="D80">
-        <v>0.01599543938932076</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04509252015672005</v>
+      </c>
+      <c r="E80">
+        <v>2.008529196753184e-05</v>
+      </c>
+      <c r="F80">
+        <v>-0.03407545144831689</v>
+      </c>
+      <c r="G80">
+        <v>0.04863170158394073</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1392806737488559</v>
+        <v>0.1415088551538257</v>
       </c>
       <c r="C81">
-        <v>0.07829290353969991</v>
+        <v>-0.09126513628115415</v>
       </c>
       <c r="D81">
-        <v>-0.02893243604512695</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07595524958306329</v>
+      </c>
+      <c r="E81">
+        <v>-0.09970599218832808</v>
+      </c>
+      <c r="F81">
+        <v>-0.04013025581639668</v>
+      </c>
+      <c r="G81">
+        <v>-0.04720288528844542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.06482698263216512</v>
+        <v>0.1839976172181948</v>
       </c>
       <c r="C82">
-        <v>0.04129115997976222</v>
+        <v>-0.129517459125539</v>
       </c>
       <c r="D82">
-        <v>-0.0230077814820989</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2082066627187312</v>
+      </c>
+      <c r="E82">
+        <v>-0.05417729500022028</v>
+      </c>
+      <c r="F82">
+        <v>-0.04140025319334792</v>
+      </c>
+      <c r="G82">
+        <v>-0.006855962794263048</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02871447057041324</v>
+        <v>0.03008290340571883</v>
       </c>
       <c r="C83">
-        <v>0.02013499273000931</v>
+        <v>-0.03300115997090999</v>
       </c>
       <c r="D83">
-        <v>0.01464250117326861</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03179574528343776</v>
+      </c>
+      <c r="E83">
+        <v>0.005941660381858174</v>
+      </c>
+      <c r="F83">
+        <v>-0.0548968504562236</v>
+      </c>
+      <c r="G83">
+        <v>0.03133789728193306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2430379518429827</v>
+        <v>0.2116057454606539</v>
       </c>
       <c r="C85">
-        <v>0.1184429138178281</v>
+        <v>-0.122704073008756</v>
       </c>
       <c r="D85">
-        <v>-0.1050789248681686</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1060915255258373</v>
+      </c>
+      <c r="E85">
+        <v>-0.04474309140007699</v>
+      </c>
+      <c r="F85">
+        <v>0.007460988855382223</v>
+      </c>
+      <c r="G85">
+        <v>-0.1070424392855577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0128172512674008</v>
+        <v>0.01523529821073047</v>
       </c>
       <c r="C86">
-        <v>0.02591073369525447</v>
+        <v>-0.02691495023933141</v>
       </c>
       <c r="D86">
-        <v>0.003745072600332466</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07277682867950543</v>
+      </c>
+      <c r="E86">
+        <v>0.000716173393325758</v>
+      </c>
+      <c r="F86">
+        <v>-0.1613694258025968</v>
+      </c>
+      <c r="G86">
+        <v>0.03480252271811984</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01446520651842864</v>
+        <v>0.02143569150167622</v>
       </c>
       <c r="C87">
-        <v>0.02469140656446516</v>
+        <v>-0.0169973496424985</v>
       </c>
       <c r="D87">
-        <v>0.07334921852676198</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09531833545622528</v>
+      </c>
+      <c r="E87">
+        <v>-0.04497778659920365</v>
+      </c>
+      <c r="F87">
+        <v>-0.1100026427661383</v>
+      </c>
+      <c r="G87">
+        <v>0.05227393606036895</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1034120200700627</v>
+        <v>0.0905730331175703</v>
       </c>
       <c r="C88">
-        <v>0.06797979573409083</v>
+        <v>-0.06164466139251187</v>
       </c>
       <c r="D88">
-        <v>-0.01067247309724333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0105543072657901</v>
+      </c>
+      <c r="E88">
+        <v>-0.01130534673401158</v>
+      </c>
+      <c r="F88">
+        <v>-0.07866139071298604</v>
+      </c>
+      <c r="G88">
+        <v>0.03815540170070768</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1943910408526498</v>
+        <v>0.2110454646408358</v>
       </c>
       <c r="C89">
-        <v>-0.3733684179915633</v>
+        <v>0.3720904404101856</v>
       </c>
       <c r="D89">
-        <v>-0.01556916297470839</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01797445888863793</v>
+      </c>
+      <c r="E89">
+        <v>-0.0102117436882237</v>
+      </c>
+      <c r="F89">
+        <v>-0.07523217350164535</v>
+      </c>
+      <c r="G89">
+        <v>0.09171559238851849</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1773251239037014</v>
+        <v>0.1989068554383677</v>
       </c>
       <c r="C90">
-        <v>-0.3489937105437601</v>
+        <v>0.3223940904396917</v>
       </c>
       <c r="D90">
-        <v>0.02406719428489131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01342669942783671</v>
+      </c>
+      <c r="E90">
+        <v>-0.05377666114322347</v>
+      </c>
+      <c r="F90">
+        <v>-0.0517345075978462</v>
+      </c>
+      <c r="G90">
+        <v>0.0290066747192693</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2024115094502388</v>
+        <v>0.1927859743192892</v>
       </c>
       <c r="C91">
-        <v>0.1066852968658222</v>
+        <v>-0.1316076655217455</v>
       </c>
       <c r="D91">
-        <v>-0.04069415694929883</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08703552591836261</v>
+      </c>
+      <c r="E91">
+        <v>-0.09886609119310638</v>
+      </c>
+      <c r="F91">
+        <v>-0.05656989229547338</v>
+      </c>
+      <c r="G91">
+        <v>-0.04405811712564283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1741935540182493</v>
+        <v>0.1805587779219056</v>
       </c>
       <c r="C92">
-        <v>-0.2779777262409223</v>
+        <v>0.2782197489222009</v>
       </c>
       <c r="D92">
-        <v>0.01780809763742399</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.005240325109906775</v>
+      </c>
+      <c r="E92">
+        <v>-0.07613049267967438</v>
+      </c>
+      <c r="F92">
+        <v>-0.07388888708203009</v>
+      </c>
+      <c r="G92">
+        <v>0.02904685052478331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1889648258844557</v>
+        <v>0.2186675869506063</v>
       </c>
       <c r="C93">
-        <v>-0.328400745778858</v>
+        <v>0.3202669122279109</v>
       </c>
       <c r="D93">
-        <v>0.01879781847075259</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004250221444052863</v>
+      </c>
+      <c r="E93">
+        <v>-0.0365114723783411</v>
+      </c>
+      <c r="F93">
+        <v>-0.05846614888803418</v>
+      </c>
+      <c r="G93">
+        <v>-0.01195207056542256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2759776658518158</v>
+        <v>0.3398030055514873</v>
       </c>
       <c r="C94">
-        <v>0.1376208389505152</v>
+        <v>-0.1820134488812441</v>
       </c>
       <c r="D94">
-        <v>-0.06490399466188793</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4145433349498411</v>
+      </c>
+      <c r="E94">
+        <v>-0.3026549389938286</v>
+      </c>
+      <c r="F94">
+        <v>0.4504059558673171</v>
+      </c>
+      <c r="G94">
+        <v>0.1977664898546424</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08675726451237417</v>
+        <v>0.08043747311687813</v>
       </c>
       <c r="C95">
-        <v>0.08642078914136191</v>
+        <v>-0.08627668458182691</v>
       </c>
       <c r="D95">
-        <v>0.06351348076445491</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1398226283296004</v>
+      </c>
+      <c r="E95">
+        <v>0.1488988441762153</v>
+      </c>
+      <c r="F95">
+        <v>0.003103948517388252</v>
+      </c>
+      <c r="G95">
+        <v>0.9083486606089769</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2100318016291247</v>
+        <v>0.1942931803538784</v>
       </c>
       <c r="C98">
-        <v>0.03581055721131874</v>
+        <v>-0.0412849081672803</v>
       </c>
       <c r="D98">
-        <v>0.02500096908862213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1416145235134699</v>
+      </c>
+      <c r="E98">
+        <v>0.1821156354911316</v>
+      </c>
+      <c r="F98">
+        <v>0.04176248378844018</v>
+      </c>
+      <c r="G98">
+        <v>-0.1037090458344882</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01092129701821669</v>
+        <v>0.008862328514153703</v>
       </c>
       <c r="C101">
-        <v>0.02208819754102788</v>
+        <v>-0.02268320050278176</v>
       </c>
       <c r="D101">
-        <v>-0.01187084467568887</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01303318377517463</v>
+      </c>
+      <c r="E101">
+        <v>-0.01209428570409877</v>
+      </c>
+      <c r="F101">
+        <v>-0.09941646414739397</v>
+      </c>
+      <c r="G101">
+        <v>0.004173967387939528</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1250976963553157</v>
+        <v>0.125415355386065</v>
       </c>
       <c r="C102">
-        <v>0.07257927630955718</v>
+        <v>-0.09609964003792988</v>
       </c>
       <c r="D102">
-        <v>-0.03056861130700924</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04707689886338676</v>
+      </c>
+      <c r="E102">
+        <v>-0.01341452822485598</v>
+      </c>
+      <c r="F102">
+        <v>-0.02858818619666808</v>
+      </c>
+      <c r="G102">
+        <v>-0.01195211556953405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.0009966137996021472</v>
+        <v>0.0006952415014930183</v>
       </c>
       <c r="C104">
-        <v>0.004620740510044834</v>
+        <v>-0.00221899810788933</v>
       </c>
       <c r="D104">
-        <v>0.01373790047922898</v>
+        <v>-0.008879739380079778</v>
+      </c>
+      <c r="E104">
+        <v>0.002511823599802331</v>
+      </c>
+      <c r="F104">
+        <v>0.01544414346783431</v>
+      </c>
+      <c r="G104">
+        <v>0.001422961995193225</v>
       </c>
     </row>
   </sheetData>
